--- a/pred_ohlcv/54_21/2019-10-27 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-67092.86255923755</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-74409.58805923755</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-75196.04325923754</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-75037.71582560922</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-75036.71582560922</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-78139.73552560923</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-78139.73552560923</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-78139.73552560923</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-65844.85962560923</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-72457.62962560923</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-72898.96042560923</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-75199.13272560923</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-73654.61822560923</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-73799.38472560923</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-71641.68702560922</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-71837.68702560922</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-76216.58042560922</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-85122.47692560923</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-82703.12912560922</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-84216.79872560922</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-132455.8454976813</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-132439.5203976813</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-133169.2614976813</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-133146.2614976813</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-134092.5004976813</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-129739.8848976813</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-511970.6582927664</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-540983.9839927664</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-593662.5453927664</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-593793.4588927664</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-586225.6311927664</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-586221.6756927663</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-582925.7309927663</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-560895.7385097375</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-560887.6619097375</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-561250.3637097374</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-580364.0159097376</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-597374.7750691493</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-597374.7750691493</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-606796.1579691493</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-593392.9062691493</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-542259.0169691492</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-541185.8668691493</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-544379.0987691493</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-538895.6437691493</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-67092.86255923755</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-74409.58805923755</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-75196.04325923754</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-72457.62962560923</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-69957.62962560923</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-72898.96042560923</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-75199.13272560923</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-73987.85042560923</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-73936.42482560923</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-73948.87332560922</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-73654.61822560923</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-73799.38472560923</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-71641.68702560922</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-71837.68702560922</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-71836.68702560922</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-76216.58042560922</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-85122.47692560923</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-82357.88342560922</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-82703.12912560922</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-131188.5051976813</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-132455.8454976813</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-132439.5203976813</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-132449.1239976813</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-137307.7026976813</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-133169.2614976813</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-134092.5004976813</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-131851.7352976813</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-129739.8848976813</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-523930.7066976813</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-508812.6340976814</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-508812.6340976814</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-509719.5502927664</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-511970.6582927664</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-511970.6582927664</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-511970.6582927664</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-510375.6921927664</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-511528.8324927664</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-510212.2326927664</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-511675.9380927664</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-519022.2239927664</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-518990.2239927664</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-519813.8652927664</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-519813.8652927664</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-519803.7542927664</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-519803.7542927664</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-540060.6475927664</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-529786.7496927665</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-529786.7496927665</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-532440.5659927664</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-531837.8935927664</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-531511.9957927663</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-531511.9957927663</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-542908.3060927663</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-542908.3060927663</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-542908.3060927663</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-542592.6760927663</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-542592.6760927663</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-539641.4381927663</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-540254.6618927662</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-540693.4488927663</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-540983.9839927664</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-593793.4588927664</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-586225.6311927664</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-586246.3548927663</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-586221.6756927663</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-584755.0888927663</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-582925.7309927663</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-559566.4140097375</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-560895.7385097375</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-560887.6619097375</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-563520.2127097375</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-561250.3637097374</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-580359.9669097376</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-597374.7750691493</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-597163.5322691493</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-606796.1579691493</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-593392.9062691493</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-542259.0169691492</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-544572.2547691492</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-541185.8668691493</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-543935.8668691493</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-538895.6437691493</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
